--- a/data/income_statement/1digit/total/H_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/H_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>H-Transporting and storage</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>H-Transporting and storage</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>84804943.39812</v>
+        <v>84806470.71983999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>98294193.86947</v>
+        <v>98296827.41402</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>129133635.36907</v>
+        <v>129142857.47361</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>153132379.1111</v>
+        <v>153193784.61488</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>166452013.64565</v>
+        <v>166820498.26434</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>191597214.08201</v>
+        <v>195121032.32265</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>206669208.27747</v>
+        <v>216269605.06181</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>220322930.58171</v>
+        <v>221116598.39146</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>286500287.35947</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>378197298.94963</v>
+        <v>375552194.3082</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>453692165.24393</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>456604578.66877</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>459201668.113</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>59693854.5377</v>
+        <v>59695317.17941999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>67657645.73372999</v>
+        <v>67660215.22827999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>89192336.27264999</v>
+        <v>89201335.0476</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>105820266.43481</v>
+        <v>105859361.72126</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>111320573.65405</v>
+        <v>111594180.3075</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>127141431.52024</v>
+        <v>128978228.06966</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>135853102.6624</v>
+        <v>142005482.29534</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>145030723.9961</v>
+        <v>145476937.55365</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>182182475.57041</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>224525963.95521</v>
+        <v>224937808.9718</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>269005156.95247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>271180433.11346</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>295840671.765</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>22813256.60463</v>
@@ -1037,190 +953,215 @@
         <v>36468929.85848001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>43703844.67136</v>
+        <v>43722954.64504001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>50895337.70308001</v>
+        <v>50980088.97522001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>60212563.92529</v>
+        <v>61874268.35125999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>66010662.58397</v>
+        <v>69399594.29775999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>69765940.01637001</v>
+        <v>70095021.38058999</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>97225989.75954001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>145004963.71196</v>
+        <v>141937115.01007</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>173483872.93176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>174173571.78243</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>153292554.219</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>2297832.25579</v>
+        <v>2297896.93579</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2662129.75392</v>
+        <v>2662193.80392</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>3472369.23794</v>
+        <v>3472592.56753</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3608268.00493</v>
+        <v>3611468.24858</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4236102.28852</v>
+        <v>4246228.98162</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>4243218.63648</v>
+        <v>4268535.90173</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4805443.0311</v>
+        <v>4864528.46871</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>5526266.56924</v>
+        <v>5544639.45722</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>7091822.02952</v>
+        <v>7091822.029519999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>8666371.282459999</v>
+        <v>8677270.326330001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>11203135.3597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11250573.77288</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>10068442.129</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>555388.0138599999</v>
+        <v>555388.0138600001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>601381.87063</v>
+        <v>601381.8706300001</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>920186.3495300001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>767732.0118199999</v>
+        <v>767735.5833599999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1016226.86152</v>
+        <v>1016366.53146</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1404374.17067</v>
+        <v>1474185.15548</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2464866.121520001</v>
+        <v>2887475.603720001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2345013.87983</v>
+        <v>2352049.02382</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>4311022.266469999</v>
+        <v>4311022.26647</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6963755.12608</v>
+        <v>3816736.40045</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5453380.36888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5453223.03338</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>6632100.384</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>297798.67035</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>298546.91969</v>
+        <v>298546.9196900001</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>360948.59491</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>365176.69364</v>
+        <v>365178.26961</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>545555.85861</v>
+        <v>545680.93172</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>832718.32213</v>
+        <v>851533.3923899999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2108924.82485</v>
+        <v>2128401.80818</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1372305.22617</v>
+        <v>1376937.10429</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>3124317.29611</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>5190022.553580001</v>
+        <v>2042977.34481</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3245423.45991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3244406.18555</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>4212338.058</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>68729.05060999999</v>
+        <v>68729.05061000002</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>81358.07615999998</v>
+        <v>81358.07616000001</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>165835.89522</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>110027.60986</v>
+        <v>110029.60543</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>136951.99572</v>
+        <v>136966.59255</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>138992.6239</v>
+        <v>183449.86864</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>193576.98835</v>
+        <v>251324.26158</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>335704.71928</v>
+        <v>337548.88301</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>493948.23726</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>746367.6571000002</v>
+        <v>746381.8023100001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>904198.9431699999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>904607.8616899999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1141708.017</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>188860.2929</v>
@@ -1235,226 +1176,256 @@
         <v>292527.70832</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>333719.0071899999</v>
+        <v>333719.00719</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>432663.2246399999</v>
+        <v>439201.89445</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>162364.30832</v>
+        <v>507749.5339599999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>637003.93438</v>
+        <v>637563.03652</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>692756.7331000002</v>
+        <v>692756.7331000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1027364.9154</v>
+        <v>1027377.25333</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1303757.9658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1304208.98614</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1278054.309</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>84249555.38426</v>
+        <v>84251082.70598</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>97692811.99883999</v>
+        <v>97695445.54339002</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>128213449.01954</v>
+        <v>128222671.12408</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>152364647.09928</v>
+        <v>152426049.0315199</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>165435786.78413</v>
+        <v>165804131.73288</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>190192839.91134</v>
+        <v>193646847.16717</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>204204342.15595</v>
+        <v>213382129.45809</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>217977916.70188</v>
+        <v>218764549.36764</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>282189265.0930001</v>
+        <v>282189265.093</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>371233543.8235499</v>
+        <v>371735457.90775</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>448238784.87505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>451151355.63539</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>452569567.729</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>69843750.40479998</v>
+        <v>69844247.68027</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>86037303.27527002</v>
+        <v>86039868.62991001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>116111282.73081</v>
+        <v>116119711.85053</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>136365509.37586</v>
+        <v>136418673.90965</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>145676304.7163</v>
+        <v>146002277.60844</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>169489635.78401</v>
+        <v>172314218.54091</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>175822227.43528</v>
+        <v>182238402.25295</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>185549589.90189</v>
+        <v>186248758.73708</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>246364738.87815</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>328112076.49055</v>
+        <v>328555515.80185</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>390507584.1628199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>393044911.92645</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>395667972.737</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>792803.71849</v>
+        <v>792803.7184899999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>603929.68384</v>
+        <v>603929.6838400002</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>890191.6254299999</v>
+        <v>890598.33923</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>628281.4984500002</v>
+        <v>629646.73966</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1170022.9009</v>
+        <v>1173441.69876</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1165962.31277</v>
+        <v>1167732.60408</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3194949.93992</v>
+        <v>3204176.3162</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4561315.254349999</v>
+        <v>4567873.51945</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>6968280.70049</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4224296.52597</v>
+        <v>4225259.595050001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1980713.75005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2015615.63222</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2037729.645</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>19939488.7609</v>
+        <v>19939986.03637</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>23380786.7541</v>
+        <v>23381611.43992</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>35500376.14899001</v>
+        <v>35501492.97290999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>41437389.74219999</v>
+        <v>41440707.93579999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>40512307.21780001</v>
+        <v>40539713.98086001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>48549535.35162999</v>
+        <v>48713764.7608</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>45119086.25666999</v>
+        <v>45278474.16035001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>34258205.05331</v>
+        <v>34272648.75929</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>53321271.98899002</v>
+        <v>53321271.98899001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>74371783.00397</v>
+        <v>74437463.03342</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>92296108.81727001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>93148917.96946001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>92376621.96799999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>48907393.47915999</v>
+        <v>48907393.47916</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>61693831.07947</v>
+        <v>61695571.74828999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>79362395.93905</v>
+        <v>79369301.52105001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>94025869.12752001</v>
+        <v>94074297.15018</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>103716686.77072</v>
+        <v>104011738.74341</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>119180956.72046</v>
+        <v>121836376.49456</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>126819575.05537</v>
+        <v>133041730.12034</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>145953933.17537</v>
+        <v>146631549.01285</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>184941969.84531</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>248172676.86971</v>
+        <v>248546756.34399</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>294415881.0098701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>296103425.48851</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>298579059.855</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>204064.44625</v>
@@ -1466,124 +1437,139 @@
         <v>358319.01734</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>273969.00769</v>
+        <v>274022.08401</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>277287.82688</v>
+        <v>277383.18541</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>593181.39915</v>
+        <v>596344.6814700001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>688616.18332</v>
+        <v>714021.6560600001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>776136.41886</v>
+        <v>776687.4454900001</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1133216.34336</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1343320.0909</v>
+        <v>1346036.82939</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1814880.58563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1776952.83626</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2674561.269</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>14405804.97946</v>
+        <v>14406835.02571</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>11655508.72357</v>
+        <v>11655576.91348</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>12102166.28873</v>
+        <v>12102959.27355</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>15999137.72342</v>
+        <v>16007375.12187</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>19759482.06783</v>
+        <v>19801854.12444</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>20703204.12733</v>
+        <v>21332628.62626</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>28382114.72067</v>
+        <v>31143727.20513999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>32428326.79999</v>
+        <v>32515790.63056</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>35824526.21485</v>
+        <v>35824526.21485002</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>43121467.333</v>
+        <v>43179942.10590001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>57731200.71223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>58106443.70893999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>56901594.992</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>9063569.132860001</v>
+        <v>9064607.513600001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>9886190.22067</v>
+        <v>9886258.416579997</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>12207561.40287</v>
+        <v>12207815.52856</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>13511743.13179</v>
+        <v>13541423.67905</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>15951785.55305</v>
+        <v>16008433.32437</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>17550705.72701</v>
+        <v>17833761.14951</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>19755180.94425</v>
+        <v>20591134.87275</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>22825501.1156</v>
+        <v>22903348.15814</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>26258099.07005</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>32618392.21811</v>
+        <v>32674960.01839</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>38914717.42393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>39227639.16607</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>38600817.958</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>12810.63124</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>7213.954380000002</v>
+        <v>7213.95438</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>14822.38003</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>14032.4223</v>
+        <v>14222.56534</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>23988.56333</v>
@@ -1592,25 +1578,30 @@
         <v>30311.82681</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>79037.12102999999</v>
+        <v>83375.37276</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>97106.62743000001</v>
+        <v>97013.19792999999</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>101509.85291</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>120126.27193</v>
+        <v>120132.84747</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>131865.41877</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>133333.7461</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>204628.878</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>2233766.27066</v>
@@ -1619,154 +1610,174 @@
         <v>2162059.53185</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2769552.01322</v>
+        <v>2769573.628480001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>3091459.8281</v>
+        <v>3109540.21473</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>3785001.71719</v>
+        <v>3811870.393870001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>4486708.48075</v>
+        <v>4525637.77317</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>5335707.167009999</v>
+        <v>5428911.77087</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>6007891.23081</v>
+        <v>6009803.342100001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>7038885.732859999</v>
+        <v>7038885.732860001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>9512716.51296</v>
+        <v>9519426.398360003</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>11803849.18443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>11867833.96379</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>8522268.802999999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>6816992.23096</v>
+        <v>6818030.611699999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>7716916.73444</v>
+        <v>7716984.93035</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>9423187.009620002</v>
+        <v>9423419.520049999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>10406250.88139</v>
+        <v>10417660.89898</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>12142795.27253</v>
+        <v>12172574.36717</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>13033685.41945</v>
+        <v>13277811.54953</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>14340436.65621</v>
+        <v>15078847.72912</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>16720503.25736</v>
+        <v>16796531.61811</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>19117703.48428</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>22985549.43322</v>
+        <v>23035400.77256</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>26979002.82073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>27226471.45618</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>29873920.277</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>5342235.846600002</v>
+        <v>5342227.51211</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1769318.5029</v>
+        <v>1769318.4969</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-105395.11414</v>
+        <v>-104856.2550100003</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2487394.59163</v>
+        <v>2465951.44282</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3807696.51478</v>
+        <v>3793420.800069999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3152498.400319999</v>
+        <v>3498867.476749999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>8626933.776420001</v>
+        <v>10552592.33239</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>9602825.684389999</v>
+        <v>9612442.47242</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>9566427.144800002</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>10503075.11489</v>
+        <v>10504982.08751</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>18816483.2883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>18878804.54287</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>18300777.034</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>7258237.508160001</v>
+        <v>7258237.508159999</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>7102937.00294</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>8088749.49596</v>
+        <v>8088800.50716</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>8058247.709739999</v>
+        <v>8097165.557890001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>9951694.852909999</v>
+        <v>9975764.43809</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>16511743.92433</v>
+        <v>16992547.76343</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>32784784.63143</v>
+        <v>37439932.44615</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>26580125.28126001</v>
+        <v>26637933.33601</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>37316657.9373</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>119129253.36807</v>
+        <v>121552829.84704</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>72753647.86525002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>74008250.70199001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>107288579.894</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>194794.82621</v>
@@ -1778,34 +1789,39 @@
         <v>262721.4401</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>342574.4058599999</v>
+        <v>342574.4058600001</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>485130.43589</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>603534.5915499999</v>
+        <v>621784.7233499999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1134074.06874</v>
+        <v>1136800.24146</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>542094.41387</v>
+        <v>554367.65386</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>536967.9430399999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>650459.2900800001</v>
+        <v>735155.22873</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>994932.8053599999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1469416.89274</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>2312436.94</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>236528.25274</v>
@@ -1820,13 +1836,13 @@
         <v>370361.47808</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>185538.2506</v>
+        <v>185544.99298</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>447392.95967</v>
+        <v>448233.15528</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>416096.78924</v>
+        <v>416528.8892100001</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>456020.0411</v>
@@ -1838,91 +1854,106 @@
         <v>1003068.47342</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>3102932.32459</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>3118024.56544</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>555632.7709999999</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>965771.9691400001</v>
+        <v>965771.9691399999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>741197.1746299999</v>
+        <v>741197.17463</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>634169.4573400001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>979546.7293100001</v>
+        <v>979807.6482299999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>965057.2011200001</v>
+        <v>967351.92587</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1272778.73357</v>
+        <v>1284367.13592</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1974932.90665</v>
+        <v>2054638.25602</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2176767.09689</v>
+        <v>2178346.13752</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2553812.760439999</v>
+        <v>2553812.76044</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>4134847.80438</v>
+        <v>4135104.06163</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>4822338.92725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>4827602.019239999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>4419414.278</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>58692.83815</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>59221.59461</v>
+        <v>59221.59461000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>59569.42747</v>
+        <v>59569.42746999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>69933.78468000001</v>
+        <v>70047.10874</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>80085.97649</v>
+        <v>80095.38245</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>102221.3756</v>
+        <v>108075.67641</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>125309.44428</v>
+        <v>133518.16915</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>103299.76831</v>
+        <v>103516.22771</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>115005.15214</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>160024.84217</v>
+        <v>160025.28706</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>146396.81403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>147056.29022</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>119578.817</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>291907.69275</v>
@@ -1931,61 +1962,66 @@
         <v>120303.17429</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>81525.54875999999</v>
+        <v>81525.54876000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>37448.90098</v>
+        <v>37448.90098000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>66937.3689</v>
+        <v>66937.36890000002</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>50944.73842999999</v>
+        <v>51132.41195</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>62659.5903</v>
+        <v>64008.72467</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>117345.87177</v>
+        <v>117505.14083</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>92299.68731000002</v>
+        <v>92299.68731000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>966972.1961500002</v>
+        <v>966972.19615</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>310360.9298200001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>310387.4777100001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>274314.609</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>111940.33668</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>67930.32685</v>
+        <v>67930.32684999998</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>87191.30308999999</v>
+        <v>87191.30309</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>340944.8974300001</v>
+        <v>340945.84604</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>55408.49591</v>
+        <v>55706.63616000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>41239.09885</v>
+        <v>41244.14360999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>29615.97448</v>
+        <v>39420.80156</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>200214.25394</v>
+        <v>200357.53721</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>389022.833</v>
@@ -1994,52 +2030,62 @@
         <v>65861.00289999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>161616.52149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>161554.33483</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>190714.451</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>4680032.244229999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5005288.185709999</v>
+        <v>5005288.18571</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5773214.27567</v>
+        <v>5773265.286869999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4322125.925860001</v>
+        <v>4360227.3503</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>6670128.619579999</v>
+        <v>6690301.825240001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>12268151.18478</v>
+        <v>12696223.83645</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>26736710.78052</v>
+        <v>31183247.29189</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>19849602.10538</v>
+        <v>19890124.75256</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>28859181.45393</v>
+        <v>28859181.45393001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>106497800.63038</v>
+        <v>108836280.37605</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>55387053.79992</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>56122273.80932</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>92066541.258</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>4321.08755</v>
@@ -2054,13 +2100,13 @@
         <v>5810.95307</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>7231.10308</v>
+        <v>7231.103079999999</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>5609.60337</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>6359.27738</v>
+        <v>6487.03134</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>4703.37405</v>
@@ -2069,19 +2115,24 @@
         <v>6734.72775</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>9655.012199999999</v>
+        <v>9655.012200000001</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>18543.2349</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1542.164</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>990.85843</v>
+        <v>990.8584299999999</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>3131.79088</v>
@@ -2105,7 +2156,7 @@
         <v>1459.54614</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>7608.992700000001</v>
+        <v>7608.9927</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>1826.26062</v>
@@ -2113,131 +2164,151 @@
       <c r="M34" s="48" t="n">
         <v>1935.19476</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>2358.412</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>713257.4022799999</v>
+        <v>713257.40228</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>707541.77163</v>
+        <v>707541.7716299999</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>1057308.1529</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1588723.79899</v>
+        <v>1589165.03111</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1434938.61741</v>
+        <v>1436225.98359</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1715656.29608</v>
+        <v>1731661.73466</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2296433.85865</v>
+        <v>2402691.09966</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3128618.80981</v>
+        <v>3131532.92503</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3654644.823370001</v>
+        <v>3654644.82337</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>5638737.85577</v>
+        <v>5638881.948280001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>7807537.313129999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>7831456.882829999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>7346046.194</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4949207.244589999</v>
+        <v>4949207.24459</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4748453.433900001</v>
+        <v>4748453.4339</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>6327447.853669999</v>
+        <v>6327452.11913</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3977039.46496</v>
+        <v>3989951.56236</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>8637125.84458</v>
+        <v>8664624.592020001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>11935447.63954</v>
+        <v>12450458.73513</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>29934646.82666</v>
+        <v>34427334.43570001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>26459084.30357001</v>
+        <v>26499552.65121</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>37553799.68933</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>119477413.46597</v>
+        <v>123278546.40108</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>63752812.09426</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>65106208.73639999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>118792104.741</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>52365.77654000001</v>
+        <v>52365.77654</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>110709.13106</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>75469.34658000001</v>
+        <v>75469.34658</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>87129.99060999999</v>
+        <v>87129.99060999996</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>90256.36907</v>
+        <v>90268.77011999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>105411.02823</v>
+        <v>105479.22362</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>266561.43352</v>
+        <v>271143.76301</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>167323.32385</v>
+        <v>167409.9532900001</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>290639.19708</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>311151.6016899999</v>
+        <v>311225.1116</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>344698.08532</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>333745.96947</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>231688.87</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>277564.00043</v>
+        <v>277564.0004300001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>154846.41258</v>
@@ -2249,16 +2320,16 @@
         <v>174410.345</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>163672.0563</v>
+        <v>163964.8309</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>195244.07922</v>
+        <v>196377.35342</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1073120.28472</v>
+        <v>1086362.69765</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>441518.50914</v>
+        <v>444948.52628</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>2446686.34596</v>
@@ -2267,19 +2338,24 @@
         <v>1543678.7167</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1091966.29488</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1092022.80077</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1599749.346</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>47497.79048999999</v>
+        <v>47497.79048999998</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>8524.641310000001</v>
+        <v>8524.641309999999</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>12302.26144</v>
@@ -2294,10 +2370,10 @@
         <v>33293.84374</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>55352.07813</v>
+        <v>58017.54058</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>10354.80515</v>
+        <v>10394.33015</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>41963.25506</v>
@@ -2308,53 +2384,63 @@
       <c r="M39" s="48" t="n">
         <v>100954.44976</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>133041.016</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>4323128.083860001</v>
+        <v>4323128.08386</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>4196389.063850001</v>
+        <v>4196389.06385</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>5667120.910610001</v>
+        <v>5667125.176069999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2899882.05472</v>
+        <v>2912780.94334</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>7958985.9685</v>
+        <v>7985540.307019998</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>11062746.45923</v>
+        <v>11568097.44155</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>26746300.80916</v>
+        <v>31215487.36706</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>23834091.47259</v>
+        <v>23870755.05392</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>33808800.49651001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>115972339.638</v>
+        <v>119763198.46829</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>59669032.06413002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>61017963.46167999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>111860928.968</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>3853.84184</v>
+        <v>3853.841840000001</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>3841.97215</v>
@@ -2369,10 +2455,10 @@
         <v>10729.4312</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>10823.14519</v>
+        <v>10831.2534</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>4633.010850000001</v>
+        <v>4704.335410000001</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>6975.39511</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>4924.881989999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>3841.264</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>510.31626</v>
+        <v>510.3162599999999</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>865.07722</v>
@@ -2420,16 +2511,21 @@
         <v>3553.35052</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>54.45020000000001</v>
+        <v>54.4502</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>462.41475</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1273.797</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>244287.43517</v>
@@ -2438,37 +2534,42 @@
         <v>273277.13573</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>347842.7213899999</v>
+        <v>347842.72139</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>786450.87755</v>
+        <v>786464.08633</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>398010.50004</v>
+        <v>398649.73331</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>527486.93178</v>
+        <v>535937.46725</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1783881.40462</v>
+        <v>1786820.92633</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1996708.36258</v>
+        <v>1996956.95731</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>957518.23254</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1610247.89226</v>
+        <v>1620448.48717</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2540773.90343</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2556134.75798</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4961581.48</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2223795.98736</v>
@@ -2477,37 +2578,42 @@
         <v>1963918.48203</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4592427.01274</v>
+        <v>4592430.641929999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2770127.86733</v>
+        <v>2770808.39324</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5379900.992149999</v>
+        <v>5388351.88791</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4121175.95208</v>
+        <v>4222511.5037</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6879262.177530001</v>
+        <v>6954100.685289999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>7066723.13663</v>
+        <v>7076501.162529999</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>10938805.8257</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>24090133.02857</v>
+        <v>24119069.36548</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>23572886.93806</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>23633480.14685</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>45806342.003</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1212184.52948</v>
@@ -2516,154 +2622,174 @@
         <v>1021397.30403</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2389633.67736</v>
+        <v>2389637.30655</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1796039.12629</v>
+        <v>1796681.40914</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2378474.54998</v>
+        <v>2385659.09694</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2628410.55317</v>
+        <v>2652049.40607</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3650596.69388</v>
+        <v>3711000.65862</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4243978.757909999</v>
+        <v>4253694.6282</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>7727315.528269999</v>
+        <v>7727315.52827</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>17320254.05548</v>
+        <v>17349177.79385</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>17759039.84499</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>17813785.31761</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>33317377.768</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1011611.45788</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>942521.1780000001</v>
+        <v>942521.178</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>2202793.33538</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>974088.74104</v>
+        <v>974126.9841000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3001426.44217</v>
+        <v>3002692.79097</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1492765.39891</v>
+        <v>1570462.09763</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3228665.48365</v>
+        <v>3243100.02667</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2822744.37872</v>
+        <v>2822806.53433</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>3211490.29743</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6769878.97309</v>
+        <v>6769891.57163</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>5813847.093069999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5819694.82924</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>12488964.235</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5427470.12281</v>
+        <v>5427461.78832</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2159883.58991</v>
+        <v>2159883.58391</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-2936520.48459</v>
+        <v>-2935938.508909999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3798474.96908</v>
+        <v>3802357.045110001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-257635.4690399999</v>
+        <v>-283791.2417699997</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3607618.73303</v>
+        <v>3818445.001350001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4597809.403659998</v>
+        <v>6611089.657550002</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2657143.525449998</v>
+        <v>2674321.994689998</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-1609520.432929999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-13935218.01158</v>
+        <v>-15339803.83201</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>4244432.121230001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4147366.36161</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-39009089.816</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>3181550.54575</v>
+        <v>3181550.545750001</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>2721712.52883</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2763282.170369999</v>
+        <v>2763286.83138</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2325072.21248</v>
+        <v>2325574.2966</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4399335.442450001</v>
+        <v>4402536.901999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3518911.80407</v>
+        <v>3547675.4528</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3315177.12809</v>
+        <v>3516030.23818</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5040621.225379999</v>
+        <v>5044271.498480001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>13189020.86448</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>11150038.67062</v>
+        <v>11152687.70845</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>9046709.03214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>9086454.967859998</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>11163797.058</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>198242.78369</v>
@@ -2675,115 +2801,130 @@
         <v>554848.31988</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>151316.45249</v>
+        <v>151332.7361100001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>229162.83384</v>
+        <v>229272.22778</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>261394.14547</v>
+        <v>261423.14455</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>341404.2682999999</v>
+        <v>343789.53603</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>358286.7958200001</v>
+        <v>358289.07741</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>479283.87797</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4679982.347359999</v>
+        <v>4679982.347360001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>218314.31683</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>218345.45512</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>812792.292</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2983307.76206</v>
+        <v>2983307.762060001</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>2460254.21826</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2208433.85049</v>
+        <v>2208438.5115</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2173755.75999</v>
+        <v>2174241.56049</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4170172.60861</v>
+        <v>4173264.67422</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3257517.6586</v>
+        <v>3286252.30825</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2973772.85979</v>
+        <v>3172240.702150001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4682334.42956</v>
+        <v>4685982.421070001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>12709736.98651</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>6470056.32326</v>
+        <v>6472705.361089999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>8828394.71531</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>8868109.512739999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>10351004.766</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1757622.8371</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2675852.257000001</v>
+        <v>2675852.257</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>3258747.200119999</v>
+        <v>3258778.604159999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1647340.49206</v>
+        <v>1647811.7929</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1961573.47847</v>
+        <v>1966019.28971</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2807674.90642</v>
+        <v>2824385.66868</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3883495.2261</v>
+        <v>3962773.69558</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>4705857.157190001</v>
+        <v>4711197.59417</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>3356430.154099999</v>
+        <v>3356430.1541</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>5093265.11204</v>
+        <v>5095891.900210001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>5339065.305110003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>5358835.946690001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>9472441.579</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>82713.28736999998</v>
+        <v>82713.28737000001</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>90555.81174</v>
@@ -2801,25 +2942,30 @@
         <v>156535.12881</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>167132.20647</v>
+        <v>168117.82578</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>206277.59445</v>
+        <v>206761.03844</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>180510.20157</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>204927.53357</v>
+        <v>204941.28786</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>269404.23648</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>269659.84345</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>197617.267</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>220535.69183</v>
@@ -2828,37 +2974,42 @@
         <v>1496965.63868</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>330207.98542</v>
+        <v>330209.42692</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>248376.95717</v>
+        <v>248462.88364</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>466389.3277800001</v>
+        <v>466909.4229000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>814438.59678</v>
+        <v>814564.6264100001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1402561.68397</v>
+        <v>1410311.12455</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>577240.94394</v>
+        <v>577733.7328299999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>708511.6063600001</v>
+        <v>708511.60636</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>386310.40847</v>
+        <v>386596.8296</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>608173.1105800001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>609276.7735799998</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>973143.061</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1454373.8579</v>
@@ -2867,151 +3018,169 @@
         <v>1088330.80658</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2819403.40319</v>
+        <v>2819433.36573</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1285737.25903</v>
+        <v>1286122.6334</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1345972.39817</v>
+        <v>1349898.11429</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1836701.18083</v>
+        <v>1853285.91346</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2313801.33566</v>
+        <v>2384344.74525</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>3922338.6188</v>
+        <v>3926702.8229</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2467408.346170001</v>
+        <v>2467408.34617</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>4502027.17</v>
+        <v>4504353.78275</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4461487.95805</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>4479899.329660001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>8301681.251</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>6851397.831460001</v>
+        <v>6851389.49697</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2205743.86174</v>
+        <v>2205743.85574</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-3431985.51434</v>
+        <v>-3431430.28169</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>4476206.689499999</v>
+        <v>4480119.548810001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2180126.494940001</v>
+        <v>2152726.37052</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4318855.63068</v>
+        <v>4541734.78547</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4029491.30565</v>
+        <v>6164346.20015</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2991907.593640003</v>
+        <v>3007395.899000003</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>8223070.27745</v>
+        <v>8223070.277450002</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-7878444.453</v>
+        <v>-9283008.023770001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>7952075.84826</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>7874985.382780001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-37317734.337</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>596031.84011</v>
+        <v>596031.8401099999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>635859.8766499999</v>
+        <v>635859.87665</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>642136.3183</v>
+        <v>642216.2776700001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1013906.15748</v>
+        <v>1014102.18795</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1082572.84037</v>
+        <v>1082995.90487</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1205202.88698</v>
+        <v>1237476.26325</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1482344.76112</v>
+        <v>1557169.0664</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1429465.60911</v>
+        <v>1431667.60199</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>2003130.53201</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2813066.05459</v>
+        <v>2816343.18564</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3620002.830649999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3649482.206650001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3658252.674</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>6255365.991350001</v>
+        <v>6255357.65686</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1569883.98509</v>
+        <v>1569883.97909</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-4074121.83264</v>
+        <v>-4073646.55936</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>3462300.53202</v>
+        <v>3466017.36086</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1097553.65457</v>
+        <v>1069730.465650001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3113652.7437</v>
+        <v>3304258.522220001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2547146.54453</v>
+        <v>4607177.13375</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1562441.984529999</v>
+        <v>1575728.297009999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>6219939.74544</v>
+        <v>6219939.745440001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-10691510.50759</v>
+        <v>-12099351.20941</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4332073.017609999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4225503.176130001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-40975987.011</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>33101</v>
+        <v>33102</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>35101</v>
+        <v>35102</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>36493</v>
+        <v>36507</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>37129</v>
+        <v>37183</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>37921</v>
+        <v>38029</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>38229</v>
+        <v>38437</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>38320</v>
+        <v>38864</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>38931</v>
+        <v>39165</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>40245</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>40476</v>
+        <v>41581</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>41050</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>43159</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>